--- a/Software Testing.xlsx
+++ b/Software Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/coder_academy/Assignments/Term_1_Console_App/HangmanRUBY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EF0148-FD22-0749-959A-A2F2F977FC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD52EBE3-35EA-164B-8712-6874FD883396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{BE664884-6DAA-B743-86F2-2F97797FB613}"/>
+    <workbookView xWindow="4360" yWindow="460" windowWidth="28800" windowHeight="16180" xr2:uid="{BE664884-6DAA-B743-86F2-2F97797FB613}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Feature Being Tested</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Manual Program Testing</t>
   </si>
   <si>
@@ -84,6 +81,138 @@
   </si>
   <si>
     <t>Losing</t>
+  </si>
+  <si>
+    <t>ruby main.rb</t>
+  </si>
+  <si>
+    <t>Quit menu item</t>
+  </si>
+  <si>
+    <t>Toggle Music menu item</t>
+  </si>
+  <si>
+    <t>Credits menu item</t>
+  </si>
+  <si>
+    <t>random-word-generator gem</t>
+  </si>
+  <si>
+    <t>a, A, 1, @</t>
+  </si>
+  <si>
+    <t>" ", "", previously guess words/letters</t>
+  </si>
+  <si>
+    <t>Guess word correctly</t>
+  </si>
+  <si>
+    <t>10 incorrect guesses</t>
+  </si>
+  <si>
+    <t>Program stops music and exits</t>
+  </si>
+  <si>
+    <t>Enables/Disables music for entire game</t>
+  </si>
+  <si>
+    <t>Displays credits</t>
+  </si>
+  <si>
+    <t>Chooses a new random english word each game</t>
+  </si>
+  <si>
+    <t>Compares input to correct word, sorts accordingly</t>
+  </si>
+  <si>
+    <t>Returns prompt for user to input correct character/string</t>
+  </si>
+  <si>
+    <t>Game ends, displays win screen with appropriate music</t>
+  </si>
+  <si>
+    <t>Game ends, displays loser screen with appropriate music</t>
+  </si>
+  <si>
+    <t>Program executes without errors and begins music</t>
+  </si>
+  <si>
+    <t>Program started correctly and began playing music</t>
+  </si>
+  <si>
+    <t>Program stopped music and quit as expected</t>
+  </si>
+  <si>
+    <t>Toggles music on and off, applied for all game scenes.</t>
+  </si>
+  <si>
+    <t>Credits displayed correctly, returned to title screen when enter is pressed, however title music restarted which is not desirable.</t>
+  </si>
+  <si>
+    <t>Pending Fix</t>
+  </si>
+  <si>
+    <t>New word is chosen each time a new game starts. Word is in english.</t>
+  </si>
+  <si>
+    <t>Correct guesses are inserted into correct array, incorrect guesses are inserted into "Incorrect" array.</t>
+  </si>
+  <si>
+    <t>All okay.</t>
+  </si>
+  <si>
+    <t>Invalid inputs are met with the appropriate message, until valid input is entered.</t>
+  </si>
+  <si>
+    <t>When word is guessed correctly, game moves to winner screen, winning chime is played, and game returns to title screen.</t>
+  </si>
+  <si>
+    <t>When 10 incorrect guesses are made, game ends, displays loser screen with game over music, and returns to title screen.</t>
+  </si>
+  <si>
+    <t>Window Resize</t>
+  </si>
+  <si>
+    <t>Executing Program</t>
+  </si>
+  <si>
+    <t>Window should be resized to specified dimensions</t>
+  </si>
+  <si>
+    <t>Window resizes correctly</t>
+  </si>
+  <si>
+    <t>Executing the main.rb file from the Command Line Interface</t>
+  </si>
+  <si>
+    <t>Exiting the program using the Quit function on the main Title Screen</t>
+  </si>
+  <si>
+    <t>Altering window size of the Terminal upon execution of the program.</t>
+  </si>
+  <si>
+    <t>Enabling and disabling of the Title screen music, game music and win/loss chimes.</t>
+  </si>
+  <si>
+    <t>Displaying the credits, formatting correctly, when selecting the Credits option on the Title screen.</t>
+  </si>
+  <si>
+    <t>Selection of a random english word and assigning to the wordToGuess variable.</t>
+  </si>
+  <si>
+    <t>Ability for the user to input guesses into the program, and control the menu selector cursor.</t>
+  </si>
+  <si>
+    <t>Handling invalid inputs appropriately without thowing errors and breaking the program.</t>
+  </si>
+  <si>
+    <t>Allowing the user to actually win the game.</t>
+  </si>
+  <si>
+    <t>Allowing the user to lose if too many incorrect guesses are made.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
   </si>
 </sst>
 </file>
@@ -107,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +249,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,19 +270,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,105 +631,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FED9BE-EC93-A84C-A858-141412CD6957}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="C12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
